--- a/data/trans_dic/IMC_inf_MED_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_MED_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>42,15%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>41,34; 61,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,66; 62,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,37; 72,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,93; 61,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,47; 64,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>22,37; 58,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>43,77; 58,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 59,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>27,71; 57,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>36,24%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,33; 61,9</t>
+          <t>40,4; 49,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,08; 65,38</t>
+          <t>30,75; 38,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 61,68</t>
+          <t>14,64; 32,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,33; 60,91</t>
+          <t>49,86; 58,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 62,96</t>
+          <t>40,1; 48,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 62,71</t>
+          <t>38,83; 52,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,06; 58,73</t>
+          <t>46,82; 53,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,3; 59,8</t>
+          <t>37,04; 42,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,93; 54,84</t>
+          <t>28,34; 42,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>28,53%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,53; 59,48</t>
+          <t>34,31; 49,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,85; 48,68</t>
+          <t>22,85; 36,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,65; 51,37</t>
+          <t>19,14; 37,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,22; 49,31</t>
+          <t>44,69; 60,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,54; 39,36</t>
+          <t>37,52; 52,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 33,63</t>
+          <t>20,86; 39,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,76; 53,03</t>
+          <t>42,55; 53,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,84; 42,61</t>
+          <t>32,66; 43,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,12; 41,83</t>
+          <t>22,09; 35,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>34,83%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,6; 60,7</t>
+          <t>41,41; 48,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,7; 52,96</t>
+          <t>31,35; 38,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 39,36</t>
+          <t>18,75; 33,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,55; 49,96</t>
+          <t>50,18; 57,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,24; 36,99</t>
+          <t>41,91; 48,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 37,5</t>
+          <t>35,95; 46,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,97; 53,73</t>
+          <t>46,98; 52,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,7; 43,13</t>
+          <t>37,67; 42,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,41; 35,8</t>
+          <t>28,93; 38,98</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>53,69%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>45,36%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>40,97%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>45,04%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>40,27%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>35,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>50,05; 57,02</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>41,64; 48,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>36,25; 46,58</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>41,39; 48,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>30,57; 37,99</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>24,06; 34,18</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>46,79; 52,15</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>37,87; 42,65</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>31,63; 39,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
